--- a/ReverseGoalData.xlsx
+++ b/ReverseGoalData.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="10070" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23610" windowHeight="10070" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="10x10-0.1-visited" sheetId="1" r:id="rId1"/>
     <sheet name="Continuous" sheetId="2" r:id="rId2"/>
+    <sheet name="Sparse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="4">
   <si>
     <t># Mazes Completed</t>
   </si>
@@ -3224,6 +3225,667 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Impact</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Reversing Start and Goal after Training</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sparse!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparse!$A$2:$A$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A858-4994-963A-8921FDCAD4C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sparse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Reversed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sparse!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sparse!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>18567</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A858-4994-963A-8921FDCAD4C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="428052360"/>
+        <c:axId val="428053344"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="428052360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Mazes Completed</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428053344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="428053344"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Steps to Completion</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="428052360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3304,6 +3966,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3821,6 +4523,522 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4431,20 +5649,57 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>53974</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>22224</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>292099</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>415926</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5854,8 +7109,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7278,4 +8533,188 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>18567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>20</v>
+      </c>
+      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>130</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>40</v>
+      </c>
+      <c r="B6">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>140</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>150</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>60</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>160</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>170</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>80</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>180</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>190</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>100</v>
+      </c>
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>200</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>